--- a/data/georgia_census/kakheti/sagarejo/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/sagarejo/education_graduates.xlsx
@@ -1850,13 +1850,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0F34BD-B02B-4C68-A527-4161B7B72466}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DDC936-58AC-467B-AE92-EEEDB48F8DE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EC53058-6BF8-4A90-91F9-CCD7A8CD10DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{580CDC04-BB29-4704-8FD3-8AFE7DE690E2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C382EE90-D3FE-4259-8916-B7867FB86BDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045A4C57-E757-4F95-9D32-32FA76ABF54C}"/>
 </file>